--- a/RobotFramework/TestData/Regression_ALL.xlsx
+++ b/RobotFramework/TestData/Regression_ALL.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\RobotFramework\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BC09FF-F723-4DDA-B8B1-C6E89036246E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7155"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regression" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>TestCase</t>
   </si>
@@ -37,45 +38,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>TC_Infra_US_DBConnectivity</t>
-  </si>
-  <si>
-    <t>TC_Infra_US_EnvironmentCheck</t>
-  </si>
-  <si>
-    <t>TC_Infra_US_HostConnectivity</t>
-  </si>
-  <si>
-    <t>TC_Infra_US_AutosysConnectivity</t>
-  </si>
-  <si>
-    <t>TC_Infra_US_FRE_GLTSLCheck</t>
-  </si>
-  <si>
-    <t>TC_Infra_US_Expense</t>
-  </si>
-  <si>
-    <t>TC_Infra_US_nVisionReport</t>
-  </si>
-  <si>
-    <t>TC_Infra_US_CreateWirePayment</t>
-  </si>
-  <si>
-    <t>TC_Infra_US_BankStatements</t>
-  </si>
-  <si>
-    <t>TC_Infra_US_Online_Voucher_Creation</t>
-  </si>
-  <si>
-    <t>TC_Infra_US_Journal_Creation</t>
-  </si>
-  <si>
-    <t>TC_Infra_US_CreateRequisition</t>
-  </si>
-  <si>
-    <t>TC_Infra_US_MQ</t>
-  </si>
-  <si>
     <t>RequisitionID</t>
   </si>
   <si>
@@ -92,9 +54,6 @@
   </si>
   <si>
     <t>InstanceNumber</t>
-  </si>
-  <si>
-    <t>0000014023</t>
   </si>
   <si>
     <t>TC_Add_DeleteProductFromWishList</t>
@@ -109,7 +68,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -233,16 +192,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -258,7 +211,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3 3 2" xfId="1"/>
+    <cellStyle name="Normal 3 3 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -349,6 +302,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -384,6 +354,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -559,68 +546,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.140625" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" style="10" customWidth="1"/>
-    <col min="2" max="3" width="8.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="10" customWidth="1"/>
-    <col min="6" max="16384" width="8.140625" style="10"/>
+    <col min="1" max="1" width="27.85546875" style="6" customWidth="1"/>
+    <col min="2" max="3" width="8.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="8.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="7">
+    <row r="2" spans="1:5" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="5">
         <v>1</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:5" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="7">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9">
-        <v>1</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>27</v>
+      <c r="D2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -630,19 +604,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="A2" sqref="A2:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
@@ -653,211 +627,27 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="C1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="D1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="3">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="3">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="3">
-        <v>1</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
